--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fasl</t>
+  </si>
+  <si>
+    <t>Fas</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fasl</t>
-  </si>
-  <si>
-    <t>Fas</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1010866666666667</v>
+        <v>0.1118776666666667</v>
       </c>
       <c r="H2">
-        <v>0.30326</v>
+        <v>0.335633</v>
       </c>
       <c r="I2">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597327</v>
       </c>
       <c r="J2">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597326</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N2">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O2">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P2">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q2">
-        <v>1.831191301431111</v>
+        <v>0.9295650919114443</v>
       </c>
       <c r="R2">
-        <v>16.48072171288</v>
+        <v>8.366085827202999</v>
       </c>
       <c r="S2">
-        <v>0.2770108782267545</v>
+        <v>0.0642369981008717</v>
       </c>
       <c r="T2">
-        <v>0.2770108782267545</v>
+        <v>0.0642369981008717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1010866666666667</v>
+        <v>0.1118776666666667</v>
       </c>
       <c r="H3">
-        <v>0.30326</v>
+        <v>0.335633</v>
       </c>
       <c r="I3">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597327</v>
       </c>
       <c r="J3">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597326</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N3">
         <v>25.865738</v>
       </c>
       <c r="O3">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P3">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q3">
-        <v>0.8715604117644444</v>
+        <v>0.9645994713504442</v>
       </c>
       <c r="R3">
-        <v>7.844043705879999</v>
+        <v>8.681395242154</v>
       </c>
       <c r="S3">
-        <v>0.1318440705249403</v>
+        <v>0.06665802636997398</v>
       </c>
       <c r="T3">
-        <v>0.1318440705249402</v>
+        <v>0.06665802636997396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1010866666666667</v>
+        <v>0.1118776666666667</v>
       </c>
       <c r="H4">
-        <v>0.30326</v>
+        <v>0.335633</v>
       </c>
       <c r="I4">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597327</v>
       </c>
       <c r="J4">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597326</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N4">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O4">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P4">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q4">
-        <v>0.3212853363577778</v>
+        <v>0.5594240968941111</v>
       </c>
       <c r="R4">
-        <v>2.89156802722</v>
+        <v>5.034816872047001</v>
       </c>
       <c r="S4">
-        <v>0.04860198555786684</v>
+        <v>0.03865864258722866</v>
       </c>
       <c r="T4">
-        <v>0.04860198555786684</v>
+        <v>0.03865864258722866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1010866666666667</v>
+        <v>0.1118776666666667</v>
       </c>
       <c r="H5">
-        <v>0.30326</v>
+        <v>0.335633</v>
       </c>
       <c r="I5">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597327</v>
       </c>
       <c r="J5">
-        <v>0.5058666924665464</v>
+        <v>0.1996574747597326</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N5">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O5">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P5">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q5">
-        <v>0.3200146095666666</v>
+        <v>0.4356282142751111</v>
       </c>
       <c r="R5">
-        <v>2.8801314861</v>
+        <v>3.920653928476</v>
       </c>
       <c r="S5">
-        <v>0.04840975815698477</v>
+        <v>0.0301038077016583</v>
       </c>
       <c r="T5">
-        <v>0.04840975815698476</v>
+        <v>0.0301038077016583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09874200000000001</v>
+        <v>0.4484703333333333</v>
       </c>
       <c r="H6">
-        <v>0.296226</v>
+        <v>1.345411</v>
       </c>
       <c r="I6">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402674</v>
       </c>
       <c r="J6">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N6">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O6">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P6">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q6">
-        <v>1.788717517832</v>
+        <v>3.726234011177888</v>
       </c>
       <c r="R6">
-        <v>16.098457660488</v>
+        <v>33.536106100601</v>
       </c>
       <c r="S6">
-        <v>0.2705857165916989</v>
+        <v>0.2574990059138759</v>
       </c>
       <c r="T6">
-        <v>0.2705857165916988</v>
+        <v>0.2574990059138758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09874200000000001</v>
+        <v>0.4484703333333333</v>
       </c>
       <c r="H7">
-        <v>0.296226</v>
+        <v>1.345411</v>
       </c>
       <c r="I7">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402674</v>
       </c>
       <c r="J7">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N7">
         <v>25.865738</v>
       </c>
       <c r="O7">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P7">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q7">
-        <v>0.8513449005320001</v>
+        <v>3.866672047590888</v>
       </c>
       <c r="R7">
-        <v>7.662104104788002</v>
+        <v>34.80004842831799</v>
       </c>
       <c r="S7">
-        <v>0.1287859976103705</v>
+        <v>0.267203886138887</v>
       </c>
       <c r="T7">
-        <v>0.1287859976103705</v>
+        <v>0.267203886138887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09874200000000001</v>
+        <v>0.4484703333333333</v>
       </c>
       <c r="H8">
-        <v>0.296226</v>
+        <v>1.345411</v>
       </c>
       <c r="I8">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402674</v>
       </c>
       <c r="J8">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402673</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N8">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O8">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P8">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q8">
-        <v>0.313833245558</v>
+        <v>2.242495027683222</v>
       </c>
       <c r="R8">
-        <v>2.824499210022001</v>
+        <v>20.182455249149</v>
       </c>
       <c r="S8">
-        <v>0.04747468104552089</v>
+        <v>0.1549661772886632</v>
       </c>
       <c r="T8">
-        <v>0.04747468104552089</v>
+        <v>0.1549661772886632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09874200000000001</v>
+        <v>0.4484703333333333</v>
       </c>
       <c r="H9">
-        <v>0.296226</v>
+        <v>1.345411</v>
       </c>
       <c r="I9">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402674</v>
       </c>
       <c r="J9">
-        <v>0.4941333075334537</v>
+        <v>0.8003425252402673</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N9">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O9">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P9">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q9">
-        <v>0.31259199279</v>
+        <v>1.746249598210222</v>
       </c>
       <c r="R9">
-        <v>2.81332793511</v>
+        <v>15.716246383892</v>
       </c>
       <c r="S9">
-        <v>0.04728691228586353</v>
+        <v>0.1206734558988413</v>
       </c>
       <c r="T9">
-        <v>0.04728691228586352</v>
+        <v>0.1206734558988413</v>
       </c>
     </row>
   </sheetData>
